--- a/planning_info/S_traverse_2021_Nordland.xlsx
+++ b/planning_info/S_traverse_2021_Nordland.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
     <t>date</t>
   </si>
@@ -43,7 +43,7 @@
     <t>distance (nm)</t>
   </si>
   <si>
-    <t>fly time (h)</t>
+    <t>fly+taxi+circle time (h)</t>
   </si>
   <si>
     <t>arrival time (local time)</t>
@@ -188,6 +188,63 @@
   </si>
   <si>
     <t>NSE</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>total fly time no taxi or circling</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>end of flying</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.6</t>
   </si>
   <si>
     <t>Akureyri</t>
@@ -629,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,17 +779,17 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>473</v>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>12.1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+        <v>12.5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
       </c>
       <c r="M2">
         <v>65.65470000000001</v>
@@ -747,16 +804,16 @@
         <v>-37.1349</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="S2">
         <v>130</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -784,17 +841,17 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>380</v>
+      <c r="I3" t="s">
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="K3">
-        <v>16.1</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
+        <v>16.9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
       </c>
       <c r="M3">
         <v>65.5745</v>
@@ -809,92 +866,38 @@
         <v>-51.6742</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="S3">
         <v>130</v>
       </c>
       <c r="T3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>70</v>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>6.6</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>8.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>750</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>171</v>
-      </c>
-      <c r="J5">
-        <v>1.32</v>
-      </c>
-      <c r="K5">
-        <v>35.4</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>64.1917</v>
-      </c>
-      <c r="N5">
-        <v>-51.6742</v>
-      </c>
-      <c r="O5">
-        <v>67.0106</v>
-      </c>
-      <c r="P5">
-        <v>-50.711</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -911,52 +914,52 @@
         <v>8.25</v>
       </c>
       <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
       <c r="G6">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>110</v>
+      <c r="I6" t="s">
+        <v>61</v>
       </c>
       <c r="J6">
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="K6">
-        <v>37.2</v>
-      </c>
-      <c r="L6">
-        <v>4.5</v>
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
       </c>
       <c r="M6">
+        <v>64.1917</v>
+      </c>
+      <c r="N6">
+        <v>-51.6742</v>
+      </c>
+      <c r="O6">
         <v>67.0106</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>-50.711</v>
       </c>
-      <c r="O6">
-        <v>66.48</v>
-      </c>
-      <c r="P6">
-        <v>-46.2789</v>
-      </c>
       <c r="Q6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="S6">
         <v>130</v>
       </c>
       <c r="T6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -973,176 +976,122 @@
         <v>8.25</v>
       </c>
       <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
       <c r="G7">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>110</v>
+      <c r="I7" t="s">
+        <v>62</v>
       </c>
       <c r="J7">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="K7">
-        <v>42.6</v>
-      </c>
-      <c r="L7">
-        <v>18</v>
+        <v>12.2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
       </c>
       <c r="M7">
+        <v>67.0106</v>
+      </c>
+      <c r="N7">
+        <v>-50.711</v>
+      </c>
+      <c r="O7">
         <v>66.48</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>-46.2789</v>
       </c>
-      <c r="O7">
-        <v>67.0106</v>
-      </c>
-      <c r="P7">
-        <v>-50.711</v>
-      </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="S7">
         <v>130</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
       <c r="G8">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>161</v>
+      <c r="I8" t="s">
+        <v>62</v>
       </c>
       <c r="J8">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="K8">
-        <v>61.8</v>
-      </c>
-      <c r="L8">
-        <v>0.7</v>
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
       </c>
       <c r="M8">
+        <v>66.48</v>
+      </c>
+      <c r="N8">
+        <v>-46.2789</v>
+      </c>
+      <c r="O8">
         <v>67.0106</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>-50.711</v>
       </c>
-      <c r="O8">
-        <v>65.9995</v>
-      </c>
-      <c r="P8">
-        <v>-44.5002</v>
-      </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="S8">
         <v>130</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>8.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9">
-        <v>250</v>
-      </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9">
         <v>3</v>
-      </c>
-      <c r="I9">
-        <v>52</v>
-      </c>
-      <c r="J9">
-        <v>0.4</v>
-      </c>
-      <c r="K9">
-        <v>62.9</v>
-      </c>
-      <c r="L9">
-        <v>4.5</v>
-      </c>
-      <c r="M9">
-        <v>65.9995</v>
-      </c>
-      <c r="N9">
-        <v>-44.5002</v>
-      </c>
-      <c r="O9">
-        <v>66.48</v>
-      </c>
-      <c r="P9">
-        <v>-46.2789</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9">
-        <v>130</v>
-      </c>
-      <c r="T9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1159,458 +1108,350 @@
         <v>8.5</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>110</v>
+      <c r="I10" t="s">
+        <v>63</v>
       </c>
       <c r="J10">
-        <v>0.85</v>
+        <v>1.6</v>
       </c>
       <c r="K10">
-        <v>68.3</v>
-      </c>
-      <c r="L10">
-        <v>18</v>
+        <v>10.1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
       </c>
       <c r="M10">
-        <v>66.48</v>
+        <v>67.0106</v>
       </c>
       <c r="N10">
-        <v>-46.2789</v>
+        <v>-50.711</v>
       </c>
       <c r="O10">
-        <v>67.0106</v>
+        <v>65.9995</v>
       </c>
       <c r="P10">
-        <v>-50.711</v>
+        <v>-44.5002</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="S10">
         <v>130</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>8.5</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>191</v>
+      <c r="I11" t="s">
+        <v>64</v>
       </c>
       <c r="J11">
-        <v>1.47</v>
+        <v>0.8</v>
       </c>
       <c r="K11">
-        <v>87.7</v>
-      </c>
-      <c r="L11">
-        <v>4.5</v>
+        <v>11.6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>67.0106</v>
+        <v>65.9995</v>
       </c>
       <c r="N11">
-        <v>-50.711</v>
+        <v>-44.5002</v>
       </c>
       <c r="O11">
-        <v>69.8798</v>
+        <v>66.48</v>
       </c>
       <c r="P11">
-        <v>-46.9867</v>
+        <v>-46.2789</v>
       </c>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="S11">
         <v>130</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>8.5</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>94</v>
+      <c r="I12" t="s">
+        <v>62</v>
       </c>
       <c r="J12">
-        <v>0.72</v>
+        <v>1.2</v>
       </c>
       <c r="K12">
-        <v>93</v>
-      </c>
-      <c r="L12">
-        <v>18</v>
+        <v>17.4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
       </c>
       <c r="M12">
-        <v>69.8798</v>
+        <v>66.48</v>
       </c>
       <c r="N12">
-        <v>-46.9867</v>
+        <v>-46.2789</v>
       </c>
       <c r="O12">
-        <v>69.2405</v>
+        <v>67.0106</v>
       </c>
       <c r="P12">
-        <v>-51.0664</v>
+        <v>-50.711</v>
       </c>
       <c r="Q12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="S12">
         <v>130</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" t="s">
-        <v>78</v>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>199</v>
+      <c r="I14" t="s">
+        <v>65</v>
       </c>
       <c r="J14">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="K14">
-        <v>112.5</v>
-      </c>
-      <c r="L14">
-        <v>0.6</v>
+        <v>10.4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
       </c>
       <c r="M14">
-        <v>69.2405</v>
+        <v>67.0106</v>
       </c>
       <c r="N14">
-        <v>-51.0664</v>
+        <v>-50.711</v>
       </c>
       <c r="O14">
-        <v>66.48</v>
+        <v>69.8798</v>
       </c>
       <c r="P14">
-        <v>-46.2789</v>
+        <v>-46.9867</v>
       </c>
       <c r="Q14" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="S14">
         <v>130</v>
       </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>204</v>
+      <c r="I15" t="s">
+        <v>66</v>
       </c>
       <c r="J15">
-        <v>1.57</v>
+        <v>1.1</v>
       </c>
       <c r="K15">
-        <v>114.7</v>
-      </c>
-      <c r="L15">
-        <v>4.5</v>
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>66.48</v>
+        <v>69.8798</v>
       </c>
       <c r="N15">
-        <v>-46.2789</v>
+        <v>-46.9867</v>
       </c>
       <c r="O15">
-        <v>63.1489</v>
+        <v>69.2405</v>
       </c>
       <c r="P15">
-        <v>-44.8172</v>
+        <v>-51.0664</v>
       </c>
       <c r="Q15" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="S15">
         <v>130</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <v>150</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>121</v>
+      <c r="I16" t="s">
+        <v>60</v>
       </c>
       <c r="J16">
-        <v>0.93</v>
-      </c>
-      <c r="K16">
-        <v>120.1</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
-      <c r="M16">
-        <v>63.1489</v>
-      </c>
-      <c r="N16">
-        <v>-44.8172</v>
-      </c>
-      <c r="O16">
-        <v>61.1614</v>
-      </c>
-      <c r="P16">
-        <v>-45.4178</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S16">
-        <v>130</v>
-      </c>
-      <c r="T16" t="s">
-        <v>81</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17">
-        <v>300</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>251</v>
-      </c>
-      <c r="J17">
-        <v>1.93</v>
-      </c>
-      <c r="K17">
-        <v>140</v>
-      </c>
-      <c r="L17">
-        <v>0.6</v>
-      </c>
-      <c r="M17">
-        <v>61.1614</v>
-      </c>
-      <c r="N17">
-        <v>-45.4178</v>
-      </c>
-      <c r="O17">
-        <v>64.1917</v>
-      </c>
-      <c r="P17">
-        <v>-51.6742</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>67</v>
-      </c>
-      <c r="R17" t="s">
-        <v>60</v>
-      </c>
-      <c r="S17">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="T17" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>300</v>
@@ -1618,61 +1459,61 @@
       <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>268</v>
+      <c r="I18" t="s">
+        <v>67</v>
       </c>
       <c r="J18">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="K18">
-        <v>142.7</v>
-      </c>
-      <c r="L18">
-        <v>4.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>64.1917</v>
+        <v>69.2405</v>
       </c>
       <c r="N18">
-        <v>-51.6742</v>
+        <v>-51.0664</v>
       </c>
       <c r="O18">
-        <v>66.47969999999999</v>
+        <v>66.48</v>
       </c>
       <c r="P18">
-        <v>-42.5002</v>
+        <v>-46.2789</v>
       </c>
       <c r="Q18" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="S18">
         <v>130</v>
       </c>
       <c r="T18" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>150</v>
@@ -1680,61 +1521,61 @@
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>142</v>
+      <c r="I19" t="s">
+        <v>68</v>
       </c>
       <c r="J19">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>148.3</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
+        <v>12.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>66.47969999999999</v>
+        <v>66.48</v>
       </c>
       <c r="N19">
-        <v>-42.5002</v>
+        <v>-46.2789</v>
       </c>
       <c r="O19">
-        <v>65.5745</v>
+        <v>63.1489</v>
       </c>
       <c r="P19">
-        <v>-37.1349</v>
+        <v>-44.8172</v>
       </c>
       <c r="Q19" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="S19">
         <v>130</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G20">
         <v>150</v>
@@ -1742,41 +1583,321 @@
       <c r="H20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>473</v>
+      <c r="I20" t="s">
+        <v>69</v>
       </c>
       <c r="J20">
-        <v>3.63</v>
+        <v>1.3</v>
       </c>
       <c r="K20">
-        <v>169.9</v>
-      </c>
-      <c r="L20">
-        <v>4.5</v>
+        <v>18.3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
       </c>
       <c r="M20">
-        <v>65.5745</v>
+        <v>63.1489</v>
       </c>
       <c r="N20">
-        <v>-37.1349</v>
+        <v>-44.8172</v>
       </c>
       <c r="O20">
-        <v>65.65470000000001</v>
+        <v>61.1614</v>
       </c>
       <c r="P20">
-        <v>-18.0757</v>
+        <v>-45.4178</v>
       </c>
       <c r="Q20" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="S20">
         <v>130</v>
       </c>
       <c r="T20" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22">
+        <v>2.3</v>
+      </c>
+      <c r="K22">
+        <v>10.3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22">
+        <v>61.1614</v>
+      </c>
+      <c r="N22">
+        <v>-45.4178</v>
+      </c>
+      <c r="O22">
+        <v>64.1917</v>
+      </c>
+      <c r="P22">
+        <v>-51.6742</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22">
+        <v>130</v>
+      </c>
+      <c r="T22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+      <c r="K24">
+        <v>10.5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24">
+        <v>64.1917</v>
+      </c>
+      <c r="N24">
+        <v>-51.6742</v>
+      </c>
+      <c r="O24">
+        <v>66.47969999999999</v>
+      </c>
+      <c r="P24">
+        <v>-42.5002</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24">
+        <v>130</v>
+      </c>
+      <c r="T24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25">
+        <v>1.5</v>
+      </c>
+      <c r="K25">
+        <v>16.5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25">
+        <v>66.47969999999999</v>
+      </c>
+      <c r="N25">
+        <v>-42.5002</v>
+      </c>
+      <c r="O25">
+        <v>65.5745</v>
+      </c>
+      <c r="P25">
+        <v>-37.1349</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25">
+        <v>130</v>
+      </c>
+      <c r="T25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27">
+        <v>150</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27">
+        <v>65.5745</v>
+      </c>
+      <c r="N27">
+        <v>-37.1349</v>
+      </c>
+      <c r="O27">
+        <v>65.65470000000001</v>
+      </c>
+      <c r="P27">
+        <v>-18.0757</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S27">
+        <v>130</v>
+      </c>
+      <c r="T27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/planning_info/S_traverse_2021_Nordland.xlsx
+++ b/planning_info/S_traverse_2021_Nordland.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
-    <t>date</t>
+    <t>date (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>day</t>
